--- a/data/processed/climate_wealth_df.xlsx
+++ b/data/processed/climate_wealth_df.xlsx
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>491.9042826293455</v>
+        <v>479.5156661484671</v>
       </c>
       <c r="D2" t="n">
         <v>2.455315637441395</v>
@@ -871,184 +871,184 @@
         <v>-1.215429533539058</v>
       </c>
       <c r="P2" t="n">
-        <v>1668.371843371934</v>
+        <v>1626.353874338301</v>
       </c>
       <c r="Q2" t="n">
-        <v>59.1751164641955</v>
+        <v>57.68479029917889</v>
       </c>
       <c r="R2" t="n">
-        <v>1596.539115633367</v>
+        <v>1556.33025488798</v>
       </c>
       <c r="S2" t="n">
-        <v>2003.625361346531</v>
+        <v>1953.164027608179</v>
       </c>
       <c r="T2" t="n">
-        <v>-407.0862457131634</v>
+        <v>-396.8337727201987</v>
       </c>
       <c r="U2" t="n">
-        <v>1267.58417781589</v>
+        <v>1235.660051942761</v>
       </c>
       <c r="V2" t="n">
-        <v>44.95966630486037</v>
+        <v>43.82735645794878</v>
       </c>
       <c r="W2" t="n">
-        <v>1213.007597965001</v>
+        <v>1182.457984045694</v>
       </c>
       <c r="X2" t="n">
-        <v>1522.300808661701</v>
+        <v>1483.961640752379</v>
       </c>
       <c r="Y2" t="n">
-        <v>-309.2932106966999</v>
+        <v>-301.503656706685</v>
       </c>
       <c r="Z2" t="n">
-        <v>1059.565306499915</v>
+        <v>1032.880138913027</v>
       </c>
       <c r="AA2" t="n">
-        <v>33.27559095011599</v>
+        <v>32.43754471020105</v>
       </c>
       <c r="AB2" t="n">
-        <v>1019.570709698573</v>
+        <v>993.8928066112554</v>
       </c>
       <c r="AC2" t="n">
-        <v>1439.051445399025</v>
+        <v>1402.808913908939</v>
       </c>
       <c r="AD2" t="n">
-        <v>-419.4807357004519</v>
+        <v>-408.916107297683</v>
       </c>
       <c r="AE2" t="n">
-        <v>-727.4205332673348</v>
+        <v>-709.1004366038227</v>
       </c>
       <c r="AF2" t="n">
-        <v>-13.47872681558709</v>
+        <v>-13.13926488556225</v>
       </c>
       <c r="AG2" t="n">
-        <v>-697.6655163444093</v>
+        <v>-680.0948002129588</v>
       </c>
       <c r="AH2" t="n">
-        <v>-542.8892320562755</v>
+        <v>-529.216558885809</v>
       </c>
       <c r="AI2" t="n">
-        <v>-154.7762842881337</v>
+        <v>-150.8782413271498</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-1158.021650501336</v>
+        <v>-1128.856858465108</v>
       </c>
       <c r="AK2" t="n">
-        <v>-154.3715599094497</v>
+        <v>-150.4837099378036</v>
       </c>
       <c r="AL2" t="n">
-        <v>-991.0886618286121</v>
+        <v>-966.1280795293244</v>
       </c>
       <c r="AM2" t="n">
-        <v>-4549.068113936528</v>
+        <v>-4434.499767615749</v>
       </c>
       <c r="AN2" t="n">
-        <v>3557.979452107916</v>
+        <v>3468.371688086424</v>
       </c>
       <c r="AO2" t="n">
-        <v>940.9513101045984</v>
+        <v>917.2534377344775</v>
       </c>
       <c r="AP2" t="n">
-        <v>45.6963896486084</v>
+        <v>44.54552541361664</v>
       </c>
       <c r="AQ2" t="n">
-        <v>898.8735992889568</v>
+        <v>876.2354546750204</v>
       </c>
       <c r="AR2" t="n">
-        <v>1453.847372042291</v>
+        <v>1417.232204925447</v>
       </c>
       <c r="AS2" t="n">
-        <v>-554.9737727533344</v>
+        <v>-540.9967502504263</v>
       </c>
       <c r="AT2" t="n">
-        <v>540.1636445485556</v>
+        <v>526.5596153389379</v>
       </c>
       <c r="AU2" t="n">
-        <v>31.48093948927328</v>
+        <v>30.68809157238653</v>
       </c>
       <c r="AV2" t="n">
-        <v>515.3420816205914</v>
+        <v>502.3631838327351</v>
       </c>
       <c r="AW2" t="n">
-        <v>974.1776836174666</v>
+        <v>949.6430045493008</v>
       </c>
       <c r="AX2" t="n">
-        <v>-458.8356019968752</v>
+        <v>-447.2798207165657</v>
       </c>
       <c r="AY2" t="n">
-        <v>332.1447732325792</v>
+        <v>323.7797023092034</v>
       </c>
       <c r="AZ2" t="n">
-        <v>19.79686413452889</v>
+        <v>19.29827982463879</v>
       </c>
       <c r="BA2" t="n">
-        <v>321.9051933541623</v>
+        <v>313.7980063982953</v>
       </c>
       <c r="BB2" t="n">
-        <v>893.6933622124824</v>
+        <v>871.1856819443278</v>
       </c>
       <c r="BC2" t="n">
-        <v>-571.78816885832</v>
+        <v>-557.3876755460324</v>
       </c>
       <c r="BD2" t="n">
-        <v>-1885.442183768671</v>
+        <v>-1837.957295068931</v>
       </c>
       <c r="BE2" t="n">
-        <v>-167.8502867250368</v>
+        <v>-163.6229748233658</v>
       </c>
       <c r="BF2" t="n">
-        <v>-1688.754178173022</v>
+        <v>-1646.222879742284</v>
       </c>
       <c r="BG2" t="n">
-        <v>-5046.342133314562</v>
+        <v>-4919.249933615136</v>
       </c>
       <c r="BH2" t="n">
-        <v>3357.587955141541</v>
+        <v>3273.027053872852</v>
       </c>
       <c r="BI2" t="n">
-        <v>-217.0703403967405</v>
+        <v>-211.6034207306329</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-108.6751702608413</v>
+        <v>-105.9381845241869</v>
       </c>
       <c r="BK2" t="n">
-        <v>-92.21506253965779</v>
+        <v>-89.89262485430662</v>
       </c>
       <c r="BL2" t="n">
-        <v>-3049.605490981862</v>
+        <v>-2972.801132532672</v>
       </c>
       <c r="BM2" t="n">
-        <v>2957.390428442204</v>
+        <v>2882.908507678366</v>
       </c>
       <c r="BN2" t="n">
-        <v>-617.8580059527811</v>
+        <v>-602.2972431261703</v>
       </c>
       <c r="BO2" t="n">
-        <v>-122.8906204201764</v>
+        <v>-119.795618365417</v>
       </c>
       <c r="BP2" t="n">
-        <v>-475.746580208021</v>
+        <v>-463.7648956965898</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-3529.275188591548</v>
+        <v>-3440.390341862359</v>
       </c>
       <c r="BR2" t="n">
-        <v>3053.528608383527</v>
+        <v>2976.62544616577</v>
       </c>
       <c r="BS2" t="n">
-        <v>-825.8768772687574</v>
+        <v>-805.0771561559047</v>
       </c>
       <c r="BT2" t="n">
-        <v>-134.5746957749208</v>
+        <v>-131.1854301131648</v>
       </c>
       <c r="BU2" t="n">
-        <v>-669.1834684744501</v>
+        <v>-652.3300731310296</v>
       </c>
       <c r="BV2" t="n">
-        <v>-3609.760434113701</v>
+        <v>-3518.848565310597</v>
       </c>
       <c r="BW2" t="n">
-        <v>2940.57696563925</v>
+        <v>2866.518492179567</v>
       </c>
       <c r="BX2" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>138.3149247278208</v>
+        <v>134.8314613457268</v>
       </c>
       <c r="D3" t="n">
         <v>0.2068543207077463</v>
@@ -1112,184 +1112,184 @@
         <v>-0.9069384193836834</v>
       </c>
       <c r="P3" t="n">
-        <v>140.5562360643212</v>
+        <v>137.0163252237629</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8869919569156788</v>
+        <v>0.8646530516369615</v>
       </c>
       <c r="R3" t="n">
-        <v>129.2894300406336</v>
+        <v>126.0332738729271</v>
       </c>
       <c r="S3" t="n">
-        <v>579.1366079430909</v>
+        <v>564.5510440860467</v>
       </c>
       <c r="T3" t="n">
-        <v>-449.8471779024573</v>
+        <v>-438.5177702131196</v>
       </c>
       <c r="U3" t="n">
-        <v>106.7908581868633</v>
+        <v>104.1013288770772</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6739126981212262</v>
+        <v>0.6569401970606715</v>
       </c>
       <c r="W3" t="n">
-        <v>98.2306411663683</v>
+        <v>95.75670104619677</v>
       </c>
       <c r="X3" t="n">
-        <v>440.0124612142419</v>
+        <v>428.9307410071053</v>
       </c>
       <c r="Y3" t="n">
-        <v>-341.7818200478736</v>
+        <v>-333.1740399609085</v>
       </c>
       <c r="Z3" t="n">
-        <v>140.5505670932671</v>
+        <v>137.0107990258269</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.8073470738138897</v>
+        <v>0.7870140260693627</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.2578130184271</v>
+        <v>131.8513430390017</v>
       </c>
       <c r="AC3" t="n">
-        <v>413.1853958208746</v>
+        <v>402.7793156441305</v>
       </c>
       <c r="AD3" t="n">
-        <v>-277.9275828024475</v>
+        <v>-270.9279726051288</v>
       </c>
       <c r="AE3" t="n">
-        <v>-34.53452291191861</v>
+        <v>-33.66477045231613</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.2742318769281998</v>
+        <v>-0.2673253431368384</v>
       </c>
       <c r="AG3" t="n">
-        <v>-33.03347527468501</v>
+        <v>-32.20152672156168</v>
       </c>
       <c r="AH3" t="n">
-        <v>-156.166756888194</v>
+        <v>-152.2336948546435</v>
       </c>
       <c r="AI3" t="n">
-        <v>123.133281613509</v>
+        <v>120.0321681330818</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-722.2751106322695</v>
+        <v>-704.0846015123282</v>
       </c>
       <c r="AK3" t="n">
-        <v>-8.65404703728613</v>
+        <v>-8.436094737339992</v>
       </c>
       <c r="AL3" t="n">
-        <v>-706.2778236377791</v>
+        <v>-688.4902064224374</v>
       </c>
       <c r="AM3" t="n">
-        <v>-1313.871345448577</v>
+        <v>-1280.781476588372</v>
       </c>
       <c r="AN3" t="n">
-        <v>607.5935218107981</v>
+        <v>592.2912701659347</v>
       </c>
       <c r="AO3" t="n">
-        <v>106.0217131524021</v>
+        <v>103.3515547714463</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.6127600799874756</v>
+        <v>0.59732770850012</v>
       </c>
       <c r="AQ3" t="n">
-        <v>96.25595476594813</v>
+        <v>93.83174715136498</v>
       </c>
       <c r="AR3" t="n">
-        <v>421.0328523869298</v>
+        <v>410.429133902937</v>
       </c>
       <c r="AS3" t="n">
-        <v>-324.7768976209816</v>
+        <v>-316.5973867515721</v>
       </c>
       <c r="AT3" t="n">
-        <v>72.25633527494469</v>
+        <v>70.43655842476107</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.3996808211930267</v>
+        <v>0.3896148539238334</v>
       </c>
       <c r="AV3" t="n">
-        <v>65.19716589168324</v>
+        <v>63.55517432463505</v>
       </c>
       <c r="AW3" t="n">
-        <v>282.3740246919667</v>
+        <v>275.2624307912752</v>
       </c>
       <c r="AX3" t="n">
-        <v>-217.1768588002834</v>
+        <v>-211.7072564666401</v>
       </c>
       <c r="AY3" t="n">
-        <v>106.0160441813483</v>
+        <v>103.3460285735105</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.5331151968856903</v>
+        <v>0.5196886829325246</v>
       </c>
       <c r="BA3" t="n">
-        <v>102.2243377437419</v>
+        <v>99.64981631743976</v>
       </c>
       <c r="BB3" t="n">
-        <v>256.3244409549322</v>
+        <v>249.8689061978603</v>
       </c>
       <c r="BC3" t="n">
-        <v>-154.1001032111903</v>
+        <v>-150.2190898804206</v>
       </c>
       <c r="BD3" t="n">
-        <v>-756.8096335441884</v>
+        <v>-737.7493719646445</v>
       </c>
       <c r="BE3" t="n">
-        <v>-8.92827891421433</v>
+        <v>-8.703420080476832</v>
       </c>
       <c r="BF3" t="n">
-        <v>-739.3112989124643</v>
+        <v>-720.6917331439994</v>
       </c>
       <c r="BG3" t="n">
-        <v>-1457.211898274652</v>
+        <v>-1420.511995515926</v>
       </c>
       <c r="BH3" t="n">
-        <v>717.9005993621876</v>
+        <v>699.8202623719271</v>
       </c>
       <c r="BI3" t="n">
-        <v>-616.253397479868</v>
+        <v>-600.7330467408825</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-8.041286957298654</v>
+        <v>-7.838767028839873</v>
       </c>
       <c r="BK3" t="n">
-        <v>-610.0218688718313</v>
+        <v>-594.6584592710728</v>
       </c>
       <c r="BL3" t="n">
-        <v>-880.0122782487548</v>
+        <v>-857.8491562783311</v>
       </c>
       <c r="BM3" t="n">
-        <v>269.9904093769234</v>
+        <v>263.1906970072582</v>
       </c>
       <c r="BN3" t="n">
-        <v>-650.0187753573248</v>
+        <v>-633.6480430875671</v>
       </c>
       <c r="BO3" t="n">
-        <v>-8.254366216093098</v>
+        <v>-8.046479883416156</v>
       </c>
       <c r="BP3" t="n">
-        <v>-641.0806577460957</v>
+        <v>-624.9350320978023</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-1018.671108526341</v>
+        <v>-993.0158619075729</v>
       </c>
       <c r="BR3" t="n">
-        <v>377.5904507802456</v>
+        <v>368.0808298097706</v>
       </c>
       <c r="BS3" t="n">
-        <v>-616.2590664509219</v>
+        <v>-600.7385729388183</v>
       </c>
       <c r="BT3" t="n">
-        <v>-8.120931840400441</v>
+        <v>-7.916406054407471</v>
       </c>
       <c r="BU3" t="n">
-        <v>-604.0534858940377</v>
+        <v>-588.8403901049982</v>
       </c>
       <c r="BV3" t="n">
-        <v>-1044.720952109043</v>
+        <v>-1018.409639802438</v>
       </c>
       <c r="BW3" t="n">
-        <v>440.6674662150054</v>
+        <v>429.56924969744</v>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25.80198226248687</v>
+        <v>25.15215896558901</v>
       </c>
       <c r="D4" t="n">
         <v>0.4871875536948298</v>
@@ -1353,184 +1353,184 @@
         <v>-2.356091053784986</v>
       </c>
       <c r="P4" t="n">
-        <v>331.0409401671507</v>
+        <v>322.7036692955114</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.24690057227527</v>
+        <v>9.988832232985636</v>
       </c>
       <c r="R4" t="n">
-        <v>320.8345622002734</v>
+        <v>312.75433910552</v>
       </c>
       <c r="S4" t="n">
-        <v>97.9537051533448</v>
+        <v>95.48673967067135</v>
       </c>
       <c r="T4" t="n">
-        <v>222.8808570469286</v>
+        <v>217.2675994348486</v>
       </c>
       <c r="U4" t="n">
-        <v>251.5160272167388</v>
+        <v>245.18159242929</v>
       </c>
       <c r="V4" t="n">
-        <v>7.785320214237827</v>
+        <v>7.589246811909475</v>
       </c>
       <c r="W4" t="n">
-        <v>243.7614949911922</v>
+        <v>237.6223582101307</v>
       </c>
       <c r="X4" t="n">
-        <v>74.42259787834503</v>
+        <v>72.54826367312691</v>
       </c>
       <c r="Y4" t="n">
-        <v>169.3388971128471</v>
+        <v>165.0740945370038</v>
       </c>
       <c r="Z4" t="n">
-        <v>213.3971212975634</v>
+        <v>208.0227117076574</v>
       </c>
       <c r="AA4" t="n">
-        <v>5.842632748024352</v>
+        <v>5.695485957663034</v>
       </c>
       <c r="AB4" t="n">
-        <v>207.5376557532282</v>
+        <v>202.3108168879022</v>
       </c>
       <c r="AC4" t="n">
-        <v>71.38571719314791</v>
+        <v>69.58786687196104</v>
       </c>
       <c r="AD4" t="n">
-        <v>136.1519385600803</v>
+        <v>132.7229500159412</v>
       </c>
       <c r="AE4" t="n">
-        <v>27.57807888006156</v>
+        <v>26.88352456413189</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.05296119250166743</v>
+        <v>0.05162736410162577</v>
       </c>
       <c r="AG4" t="n">
-        <v>27.51261958754369</v>
+        <v>26.81971386484394</v>
       </c>
       <c r="AH4" t="n">
-        <v>-29.23627329845614</v>
+        <v>-28.49995733208826</v>
       </c>
       <c r="AI4" t="n">
-        <v>56.74889288599982</v>
+        <v>55.31967119693221</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-1841.924550482573</v>
+        <v>-1795.535654007285</v>
       </c>
       <c r="AK4" t="n">
-        <v>-43.25587870772298</v>
+        <v>-42.16647877611643</v>
       </c>
       <c r="AL4" t="n">
-        <v>-1798.244073601977</v>
+        <v>-1752.955270569429</v>
       </c>
       <c r="AM4" t="n">
-        <v>-203.4548561298824</v>
+        <v>-198.33084263219</v>
       </c>
       <c r="AN4" t="n">
-        <v>-1594.789217472095</v>
+        <v>-1554.624427937239</v>
       </c>
       <c r="AO4" t="n">
-        <v>358.6190190472125</v>
+        <v>349.5871938596435</v>
       </c>
       <c r="AP4" t="n">
-        <v>10.29986176477694</v>
+        <v>10.04045959708727</v>
       </c>
       <c r="AQ4" t="n">
-        <v>348.3471817878174</v>
+        <v>339.5740529703642</v>
       </c>
       <c r="AR4" t="n">
-        <v>68.35609409345984</v>
+        <v>66.63454487390808</v>
       </c>
       <c r="AS4" t="n">
-        <v>279.9910876943575</v>
+        <v>272.9395080964562</v>
       </c>
       <c r="AT4" t="n">
-        <v>279.0941060968011</v>
+        <v>272.0651169934226</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.838281406739497</v>
+        <v>7.640874176011103</v>
       </c>
       <c r="AV4" t="n">
-        <v>271.2741145787365</v>
+        <v>264.4420720749753</v>
       </c>
       <c r="AW4" t="n">
-        <v>44.91178984049363</v>
+        <v>43.78068576303038</v>
       </c>
       <c r="AX4" t="n">
-        <v>226.3623247382429</v>
+        <v>220.6613863119449</v>
       </c>
       <c r="AY4" t="n">
-        <v>240.9752001776247</v>
+        <v>234.906236271789</v>
       </c>
       <c r="AZ4" t="n">
-        <v>5.895593940526019</v>
+        <v>5.747113321764659</v>
       </c>
       <c r="BA4" t="n">
-        <v>235.0502753407716</v>
+        <v>229.1305307527459</v>
       </c>
       <c r="BB4" t="n">
-        <v>42.01994460931989</v>
+        <v>40.96167169587816</v>
       </c>
       <c r="BC4" t="n">
-        <v>193.0303307314517</v>
+        <v>188.1688590568678</v>
       </c>
       <c r="BD4" t="n">
-        <v>-1814.346471602511</v>
+        <v>-1768.652129443153</v>
       </c>
       <c r="BE4" t="n">
-        <v>-43.20291751522131</v>
+        <v>-42.1148514120148</v>
       </c>
       <c r="BF4" t="n">
-        <v>-1770.731454014433</v>
+        <v>-1726.135556704584</v>
       </c>
       <c r="BG4" t="n">
-        <v>-230.2984629076643</v>
+        <v>-224.4983927845735</v>
       </c>
       <c r="BH4" t="n">
-        <v>-1540.432991106769</v>
+        <v>-1501.637163920011</v>
       </c>
       <c r="BI4" t="n">
-        <v>-1483.30553143536</v>
+        <v>-1445.948460147642</v>
       </c>
       <c r="BJ4" t="n">
-        <v>-32.95601694294603</v>
+        <v>-32.12601917902915</v>
       </c>
       <c r="BK4" t="n">
-        <v>-1449.89689181416</v>
+        <v>-1413.381217599064</v>
       </c>
       <c r="BL4" t="n">
-        <v>-132.7060935102433</v>
+        <v>-129.3638886235809</v>
       </c>
       <c r="BM4" t="n">
-        <v>-1317.190798303916</v>
+        <v>-1284.017328975483</v>
       </c>
       <c r="BN4" t="n">
-        <v>-1562.830444385771</v>
+        <v>-1523.470537013862</v>
       </c>
       <c r="BO4" t="n">
-        <v>-35.41759730098348</v>
+        <v>-34.52560460010532</v>
       </c>
       <c r="BP4" t="n">
-        <v>-1526.96995902324</v>
+        <v>-1488.513198494453</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-156.1503982449855</v>
+        <v>-152.217748204101</v>
       </c>
       <c r="BR4" t="n">
-        <v>-1370.819560778255</v>
+        <v>-1336.295450290352</v>
       </c>
       <c r="BS4" t="n">
-        <v>-1600.949350304948</v>
+        <v>-1560.629417735496</v>
       </c>
       <c r="BT4" t="n">
-        <v>-37.36028476719697</v>
+        <v>-36.41936545435177</v>
       </c>
       <c r="BU4" t="n">
-        <v>-1563.193798261205</v>
+        <v>-1523.824739816682</v>
       </c>
       <c r="BV4" t="n">
-        <v>-159.0422919491155</v>
+        <v>-155.0368095234174</v>
       </c>
       <c r="BW4" t="n">
-        <v>-1404.15150631209</v>
+        <v>-1368.787930293265</v>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>56.19539220537131</v>
+        <v>54.78011043896012</v>
       </c>
       <c r="D5" t="n">
         <v>0.3910269294331641</v>
@@ -1594,184 +1594,184 @@
         <v>-2.996062730182817</v>
       </c>
       <c r="P5" t="n">
-        <v>265.700388625512</v>
+        <v>259.0087204905912</v>
       </c>
       <c r="Q5" t="n">
-        <v>16.3720185002288</v>
+        <v>15.95968897723089</v>
       </c>
       <c r="R5" t="n">
-        <v>244.1152804660125</v>
+        <v>237.9672335926448</v>
       </c>
       <c r="S5" t="n">
-        <v>219.2833437023154</v>
+        <v>213.7606895159121</v>
       </c>
       <c r="T5" t="n">
-        <v>24.83193676369709</v>
+        <v>24.20654407673265</v>
       </c>
       <c r="U5" t="n">
-        <v>201.87202870826</v>
+        <v>196.7878787421008</v>
       </c>
       <c r="V5" t="n">
-        <v>12.43902052905397</v>
+        <v>12.12574361691059</v>
       </c>
       <c r="W5" t="n">
-        <v>185.4722424806722</v>
+        <v>180.8011213681265</v>
       </c>
       <c r="X5" t="n">
-        <v>166.605602965485</v>
+        <v>162.4096384423215</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.86663951518726</v>
+        <v>18.39148292580505</v>
       </c>
       <c r="Z5" t="n">
-        <v>222.7401978680846</v>
+        <v>217.1304827594606</v>
       </c>
       <c r="AA5" t="n">
-        <v>10.18020242666008</v>
+        <v>9.923813881133571</v>
       </c>
       <c r="AB5" t="n">
-        <v>209.227011387904</v>
+        <v>203.9576260764565</v>
       </c>
       <c r="AC5" t="n">
-        <v>158.0191773794227</v>
+        <v>154.0394621089771</v>
       </c>
       <c r="AD5" t="n">
-        <v>51.20783400848128</v>
+        <v>49.91816396747944</v>
       </c>
       <c r="AE5" t="n">
-        <v>26.56177387778185</v>
+        <v>25.89281521805087</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.999199620813354</v>
+        <v>2.923664734934244</v>
       </c>
       <c r="AG5" t="n">
-        <v>23.40753805528463</v>
+        <v>22.81801887041712</v>
       </c>
       <c r="AH5" t="n">
-        <v>-66.55895456375806</v>
+        <v>-64.88266632928475</v>
       </c>
       <c r="AI5" t="n">
-        <v>89.96649261904271</v>
+        <v>87.70068519970185</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-2285.108131976198</v>
+        <v>-2227.55765058362</v>
       </c>
       <c r="AK5" t="n">
-        <v>-177.574483278587</v>
+        <v>-173.1022673459069</v>
       </c>
       <c r="AL5" t="n">
-        <v>-2099.565891344529</v>
+        <v>-2046.688293968942</v>
       </c>
       <c r="AM5" t="n">
-        <v>-359.748826397169</v>
+        <v>-350.6885469951314</v>
       </c>
       <c r="AN5" t="n">
-        <v>-1739.81706494736</v>
+        <v>-1695.99974697381</v>
       </c>
       <c r="AO5" t="n">
-        <v>292.2621625032936</v>
+        <v>284.9015357086418</v>
       </c>
       <c r="AP5" t="n">
-        <v>19.37121812104215</v>
+        <v>18.88335371216514</v>
       </c>
       <c r="AQ5" t="n">
-        <v>267.5228185212968</v>
+        <v>260.7852524630616</v>
       </c>
       <c r="AR5" t="n">
-        <v>151.9374140520879</v>
+        <v>148.1108680791062</v>
       </c>
       <c r="AS5" t="n">
-        <v>115.5854044692088</v>
+        <v>112.6743843839553</v>
       </c>
       <c r="AT5" t="n">
-        <v>228.4338025860418</v>
+        <v>222.6806939601517</v>
       </c>
       <c r="AU5" t="n">
-        <v>15.43822014986732</v>
+        <v>15.04940835184484</v>
       </c>
       <c r="AV5" t="n">
-        <v>208.8797805359567</v>
+        <v>203.6191402385436</v>
       </c>
       <c r="AW5" t="n">
-        <v>99.4487258391358</v>
+        <v>96.94410823884255</v>
       </c>
       <c r="AX5" t="n">
-        <v>109.4310546968209</v>
+        <v>106.675031999701</v>
       </c>
       <c r="AY5" t="n">
-        <v>249.3019717458662</v>
+        <v>243.0232979775112</v>
       </c>
       <c r="AZ5" t="n">
-        <v>13.17940204747344</v>
+        <v>12.84747861606781</v>
       </c>
       <c r="BA5" t="n">
-        <v>232.6345494431882</v>
+        <v>226.7756449468733</v>
       </c>
       <c r="BB5" t="n">
-        <v>91.17818002306998</v>
+        <v>88.88185623891327</v>
       </c>
       <c r="BC5" t="n">
-        <v>141.4563694201183</v>
+        <v>137.8937887079601</v>
       </c>
       <c r="BD5" t="n">
-        <v>-2258.546358098416</v>
+        <v>-2201.664835365569</v>
       </c>
       <c r="BE5" t="n">
-        <v>-174.5752836577737</v>
+        <v>-170.1786026109726</v>
       </c>
       <c r="BF5" t="n">
-        <v>-2076.158353289244</v>
+        <v>-2023.870275098525</v>
       </c>
       <c r="BG5" t="n">
-        <v>-421.0966761637024</v>
+        <v>-410.4913502769674</v>
       </c>
       <c r="BH5" t="n">
-        <v>-1655.061677125542</v>
+        <v>-1613.378924821558</v>
       </c>
       <c r="BI5" t="n">
-        <v>-1992.845969472905</v>
+        <v>-1942.656114874978</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-158.2032651575449</v>
+        <v>-154.2189136337417</v>
       </c>
       <c r="BK5" t="n">
-        <v>-1832.043072823232</v>
+        <v>-1785.903041505881</v>
       </c>
       <c r="BL5" t="n">
-        <v>-202.6003031799696</v>
+        <v>-197.4978116106949</v>
       </c>
       <c r="BM5" t="n">
-        <v>-1629.442769643262</v>
+        <v>-1588.405229895186</v>
       </c>
       <c r="BN5" t="n">
-        <v>-2056.674329390156</v>
+        <v>-2004.876956623468</v>
       </c>
       <c r="BO5" t="n">
-        <v>-162.1362631287197</v>
+        <v>-158.052858994062</v>
       </c>
       <c r="BP5" t="n">
-        <v>-1890.686110808572</v>
+        <v>-1843.069153730398</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-255.088992442205</v>
+        <v>-248.6645724738156</v>
       </c>
       <c r="BR5" t="n">
-        <v>-1635.597118366366</v>
+        <v>-1594.404581256583</v>
       </c>
       <c r="BS5" t="n">
-        <v>-2035.806160230332</v>
+        <v>-1984.534352606109</v>
       </c>
       <c r="BT5" t="n">
-        <v>-164.3950812311136</v>
+        <v>-160.254788729839</v>
       </c>
       <c r="BU5" t="n">
-        <v>-1866.93134190134</v>
+        <v>-1819.912649022069</v>
       </c>
       <c r="BV5" t="n">
-        <v>-263.3596438298801</v>
+        <v>-256.7269273865317</v>
       </c>
       <c r="BW5" t="n">
-        <v>-1603.57169807146</v>
+        <v>-1563.185721635537</v>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-32.76315078674113</v>
+        <v>-31.93801035976101</v>
       </c>
       <c r="D6" t="n">
         <v>0.639111105717419</v>
@@ -1835,184 +1835,184 @@
         <v>-0.1373963986342353</v>
       </c>
       <c r="P6" t="n">
-        <v>434.2720574517972</v>
+        <v>423.3349093965397</v>
       </c>
       <c r="Q6" t="n">
-        <v>-11.19862032250231</v>
+        <v>-10.91658290752215</v>
       </c>
       <c r="R6" t="n">
-        <v>445.4706777742995</v>
+        <v>434.2514923040619</v>
       </c>
       <c r="S6" t="n">
-        <v>-126.1936437501395</v>
+        <v>-123.0154550049866</v>
       </c>
       <c r="T6" t="n">
-        <v>571.6643215244389</v>
+        <v>557.2669473090484</v>
       </c>
       <c r="U6" t="n">
-        <v>329.9482612826218</v>
+        <v>321.6385095445115</v>
       </c>
       <c r="V6" t="n">
-        <v>-8.508411353599469</v>
+        <v>-8.294126890455811</v>
       </c>
       <c r="W6" t="n">
-        <v>338.4566726362212</v>
+        <v>329.9326364349673</v>
       </c>
       <c r="X6" t="n">
-        <v>-95.8785457774903</v>
+        <v>-93.46384321374643</v>
       </c>
       <c r="Y6" t="n">
-        <v>434.3352184137116</v>
+        <v>423.3964796487138</v>
       </c>
       <c r="Z6" t="n">
-        <v>394.1397212714982</v>
+        <v>384.2133066840647</v>
       </c>
       <c r="AA6" t="n">
-        <v>-10.22367148052957</v>
+        <v>-9.966188166251918</v>
       </c>
       <c r="AB6" t="n">
-        <v>404.3633927520277</v>
+        <v>394.1794948503167</v>
       </c>
       <c r="AC6" t="n">
-        <v>-87.84026982418645</v>
+        <v>-85.62801135672215</v>
       </c>
       <c r="AD6" t="n">
-        <v>492.2036625762142</v>
+        <v>479.8075062070388</v>
       </c>
       <c r="AE6" t="n">
-        <v>-60.72633957524303</v>
+        <v>-59.1969458337127</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.602367429773425</v>
+        <v>1.562011782852026</v>
       </c>
       <c r="AG6" t="n">
-        <v>-62.32870700501645</v>
+        <v>-60.75895761656474</v>
       </c>
       <c r="AH6" t="n">
-        <v>35.45436895803613</v>
+        <v>34.56145016244265</v>
       </c>
       <c r="AI6" t="n">
-        <v>-97.78307596305258</v>
+        <v>-95.32040777900738</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-426.7733877853036</v>
+        <v>-416.0250938341787</v>
       </c>
       <c r="AK6" t="n">
-        <v>11.83624908438995</v>
+        <v>11.53815297980867</v>
       </c>
       <c r="AL6" t="n">
-        <v>-438.6096368696935</v>
+        <v>-427.5632468139874</v>
       </c>
       <c r="AM6" t="n">
-        <v>301.4350695283648</v>
+        <v>293.8434229374615</v>
       </c>
       <c r="AN6" t="n">
-        <v>-740.0447063980582</v>
+        <v>-721.4066697514488</v>
       </c>
       <c r="AO6" t="n">
-        <v>373.5457178765541</v>
+        <v>364.1379635628269</v>
       </c>
       <c r="AP6" t="n">
-        <v>-9.596252892728886</v>
+        <v>-9.354571124670121</v>
       </c>
       <c r="AQ6" t="n">
-        <v>383.141970769283</v>
+        <v>373.492534687497</v>
       </c>
       <c r="AR6" t="n">
-        <v>-90.28045099158288</v>
+        <v>-88.00673652608346</v>
       </c>
       <c r="AS6" t="n">
-        <v>473.4224217608659</v>
+        <v>461.4992712135805</v>
       </c>
       <c r="AT6" t="n">
-        <v>269.2219217073787</v>
+        <v>262.4415637107988</v>
       </c>
       <c r="AU6" t="n">
-        <v>-6.906043923826044</v>
+        <v>-6.732115107603786</v>
       </c>
       <c r="AV6" t="n">
-        <v>276.1279656312048</v>
+        <v>269.1736788184025</v>
       </c>
       <c r="AW6" t="n">
-        <v>-60.07557480231061</v>
+        <v>-58.56257058100979</v>
       </c>
       <c r="AX6" t="n">
-        <v>336.2035404335154</v>
+        <v>327.7362493994123</v>
       </c>
       <c r="AY6" t="n">
-        <v>333.4133816962552</v>
+        <v>325.016360850352</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-8.621304050756148</v>
+        <v>-8.404176383399893</v>
       </c>
       <c r="BA6" t="n">
-        <v>342.0346857470113</v>
+        <v>333.4205372337519</v>
       </c>
       <c r="BB6" t="n">
-        <v>-52.22146370894854</v>
+        <v>-50.90626538926293</v>
       </c>
       <c r="BC6" t="n">
-        <v>394.2561494559599</v>
+        <v>384.3268026230148</v>
       </c>
       <c r="BD6" t="n">
-        <v>-487.4997273605466</v>
+        <v>-475.2220396678914</v>
       </c>
       <c r="BE6" t="n">
-        <v>13.43861651416337</v>
+        <v>13.1001647626607</v>
       </c>
       <c r="BF6" t="n">
-        <v>-500.93834387471</v>
+        <v>-488.3222044305521</v>
       </c>
       <c r="BG6" t="n">
-        <v>333.8512496681251</v>
+        <v>325.44320111101</v>
       </c>
       <c r="BH6" t="n">
-        <v>-834.7895935428352</v>
+        <v>-813.7654055415622</v>
       </c>
       <c r="BI6" t="n">
-        <v>-53.2276699087495</v>
+        <v>-51.88713027135185</v>
       </c>
       <c r="BJ6" t="n">
-        <v>2.239996191661062</v>
+        <v>2.18358185513855</v>
       </c>
       <c r="BK6" t="n">
-        <v>-55.46766610041056</v>
+        <v>-54.0707121264904</v>
       </c>
       <c r="BL6" t="n">
-        <v>208.116427171932</v>
+        <v>202.8750119400453</v>
       </c>
       <c r="BM6" t="n">
-        <v>-263.5840932723426</v>
+        <v>-256.9457240665357</v>
       </c>
       <c r="BN6" t="n">
-        <v>-157.5514660779247</v>
+        <v>-153.5835301233799</v>
       </c>
       <c r="BO6" t="n">
-        <v>4.930205160563904</v>
+        <v>4.806037872204887</v>
       </c>
       <c r="BP6" t="n">
-        <v>-162.4816712384886</v>
+        <v>-158.3895679955848</v>
       </c>
       <c r="BQ6" t="n">
-        <v>238.3213039729595</v>
+        <v>232.3191784814672</v>
       </c>
       <c r="BR6" t="n">
-        <v>-400.8029752114481</v>
+        <v>-390.7087464770519</v>
       </c>
       <c r="BS6" t="n">
-        <v>-93.36000608904834</v>
+        <v>-91.00873298382676</v>
       </c>
       <c r="BT6" t="n">
-        <v>3.214945033633801</v>
+        <v>3.133976596408779</v>
       </c>
       <c r="BU6" t="n">
-        <v>-96.57495112268214</v>
+        <v>-94.14270958023553</v>
       </c>
       <c r="BV6" t="n">
-        <v>246.1754766168939</v>
+        <v>239.9755436736343</v>
       </c>
       <c r="BW6" t="n">
-        <v>-342.750427739576</v>
+        <v>-334.1182532538699</v>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
